--- a/MACHINE LEARNING ONDERZOEK.xlsx
+++ b/MACHINE LEARNING ONDERZOEK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073D79D0-49FB-447B-A74F-0DD53506BE60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA84FA-2021-40DC-94FF-99359C2B448F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="7500" windowHeight="6000" xr2:uid="{894C9584-F6C5-4470-8D47-4DCA0E8BE41D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{894C9584-F6C5-4470-8D47-4DCA0E8BE41D}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="24">
   <si>
     <r>
       <rPr>
@@ -63,9 +63,6 @@
     <t>OVERLAP TRAININGSSET</t>
   </si>
   <si>
-    <t>DATASETGROOTTE NA SEGMENTATIE</t>
-  </si>
-  <si>
     <t>ACCURAATHEID</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>0.1667</t>
-  </si>
-  <si>
     <t>DIM RED</t>
   </si>
   <si>
@@ -114,19 +108,22 @@
     <t>AdaBoost</t>
   </si>
   <si>
-    <t>0.750</t>
-  </si>
-  <si>
-    <t>0.746</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
     <t>Naive Bayes</t>
+  </si>
+  <si>
+    <t>DATASET NA SEGMENTATIE</t>
+  </si>
+  <si>
+    <t>kneighbors</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -158,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +216,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FE5F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E006"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCB53FB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -232,16 +247,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,12 +265,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCB53FB"/>
+      <color rgb="FFC6E006"/>
+      <color rgb="FF6FE5F9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -566,20 +598,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C906B87-F745-4143-A2F1-1C5FDF7A283E}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
@@ -587,517 +619,796 @@
     <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>1740</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1740</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.89880000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1740</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3408</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="B16" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
-        <v>1740</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="C16" s="6">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3408</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="6">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4">
-        <v>1740</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="C22" s="6">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3408</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="6">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="C28" s="6">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="6">
         <v>3408</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="H28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="6">
         <v>1</v>
       </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="C35" s="6">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="6">
         <v>3408</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="H35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3408</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="6">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>6</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3408</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
+      <c r="B51" s="6">
         <v>1</v>
       </c>
-      <c r="C22">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="C51" s="6">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="6">
         <v>3408</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="8">
-        <v>3408</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>24</v>
+      <c r="H51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2:N28">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N39 N41:N1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N40">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/MACHINE LEARNING ONDERZOEK.xlsx
+++ b/MACHINE LEARNING ONDERZOEK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA84FA-2021-40DC-94FF-99359C2B448F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9575E4-C072-4941-89C4-9ED09D0DC962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{894C9584-F6C5-4470-8D47-4DCA0E8BE41D}"/>
+    <workbookView xWindow="1740" yWindow="4212" windowWidth="7500" windowHeight="6000" xr2:uid="{894C9584-F6C5-4470-8D47-4DCA0E8BE41D}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="25">
   <si>
     <r>
       <rPr>
@@ -125,12 +125,15 @@
   <si>
     <t>1.5</t>
   </si>
+  <si>
+    <t>TRAIN TEST SPLIT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +153,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -247,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -275,6 +284,9 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C906B87-F745-4143-A2F1-1C5FDF7A283E}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,16 +625,17 @@
     <col min="5" max="5" width="21.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -642,29 +655,32 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -672,8 +688,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
+      <c r="D2" s="19">
+        <v>0.5</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3">
@@ -700,25 +716,28 @@
       <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3">
         <v>0.16669999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>6</v>
+      <c r="D3" s="19">
+        <v>0.5</v>
       </c>
       <c r="F3" s="3">
         <v>1740</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -736,25 +755,28 @@
       <c r="M3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="3">
         <v>0.89880000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>6</v>
+      <c r="D4" s="19">
+        <v>0.5</v>
       </c>
       <c r="F4" s="3">
         <v>1740</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -772,81 +794,173 @@
       <c r="M4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.88260000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1740</v>
+      </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.59379999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1740</v>
+      </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2818</v>
+      </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1882</v>
+      </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
+      <c r="I8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="6">
+        <v>0.71430000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6">
-        <v>3408</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2354</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="I9" s="3" t="s">
         <v>6</v>
       </c>
@@ -862,494 +976,580 @@
       <c r="M9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="3">
-        <v>0.66200000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9" s="3"/>
+      <c r="O9" s="6">
+        <v>0.86670000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3408</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="6">
-        <v>3408</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0.60399999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3408</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="6">
-        <v>3408</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0.746</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>6</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3408</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
-        <v>6</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="6">
-        <v>3408</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="6">
+        <v>3408</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="6">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6">
-        <v>6</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="6">
-        <v>3408</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="6">
+      <c r="B39" s="6">
         <v>1</v>
       </c>
-      <c r="C40" s="6">
-        <v>6</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="C39" s="6">
+        <v>6</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="6">
         <v>3408</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0.59199999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="6">
+        <v>3408</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6">
-        <v>6</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="6">
-        <v>3408</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N46" s="6">
-        <v>0.59199999999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="6">
+      <c r="B50" s="6">
         <v>1</v>
       </c>
-      <c r="C51" s="6">
-        <v>6</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="C50" s="6">
+        <v>6</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="6">
         <v>3408</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N51" s="6">
-        <v>0.64300000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="B55" s="6">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6">
+        <v>6</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="6">
+        <v>3408</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="6">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N2:N28">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="O2:O32">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1361,7 +1561,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
+  <conditionalFormatting sqref="O21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1373,7 +1573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N39 N41:N1048576">
+  <conditionalFormatting sqref="O45:O1048576 O1:O43">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1385,7 +1585,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N27">
+  <conditionalFormatting sqref="O2:O31">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1397,7 +1597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N40">
+  <conditionalFormatting sqref="O44">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/MACHINE LEARNING ONDERZOEK.xlsx
+++ b/MACHINE LEARNING ONDERZOEK.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elise\Documents\unif\master\semester2\masterproef\gitProject\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elise\OneDrive\Documenten\master\masterproef\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9575E4-C072-4941-89C4-9ED09D0DC962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9575E4-C072-4941-89C4-9ED09D0DC962}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="4212" windowWidth="7500" windowHeight="6000" xr2:uid="{894C9584-F6C5-4470-8D47-4DCA0E8BE41D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{894C9584-F6C5-4470-8D47-4DCA0E8BE41D}"/>
   </bookViews>
   <sheets>
     <sheet name="CNN" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
